--- a/Data/Tables/Model_Summary/Table_11_FN_Full.xlsx
+++ b/Data/Tables/Model_Summary/Table_11_FN_Full.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henni\Documents\App State\Classes\Theses\Thesis - MSADA\Github_Repo\Coal_Mining-Thesis\Data\Tables\Model_Summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553FDE0B-CB67-4B6B-827E-F0510EC59C24}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B493E07A-24A0-4D81-9F5F-6C6071C1B77D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3966718-2B17-440E-9F4E-FDF42C64B2D3}"/>
   </bookViews>
@@ -514,6 +514,72 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -524,72 +590,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1253,7 +1253,7 @@
   <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1281,72 +1281,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="49" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="49" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="31" t="s">
+      <c r="G1" s="36"/>
+      <c r="H1" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="39" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="40"/>
-      <c r="L1" s="31" t="s">
+      <c r="K1" s="50"/>
+      <c r="L1" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="32"/>
-      <c r="N1" s="31" t="s">
+      <c r="M1" s="54"/>
+      <c r="N1" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="32"/>
-      <c r="P1" s="31" t="s">
+      <c r="O1" s="54"/>
+      <c r="P1" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="31" t="s">
+      <c r="Q1" s="54"/>
+      <c r="R1" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="32"/>
-      <c r="T1" s="45" t="s">
+      <c r="S1" s="54"/>
+      <c r="T1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="46"/>
+      <c r="U1" s="32"/>
     </row>
     <row r="2" spans="1:21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="48"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="34"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -2644,18 +2644,18 @@
       <c r="A39" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="35">
+      <c r="B39" s="45">
         <v>298509.19900000002</v>
       </c>
-      <c r="C39" s="36"/>
-      <c r="D39" s="35">
+      <c r="C39" s="46"/>
+      <c r="D39" s="45">
         <v>298176.69</v>
       </c>
-      <c r="E39" s="36"/>
-      <c r="F39" s="35">
+      <c r="E39" s="46"/>
+      <c r="F39" s="45">
         <v>297965.46399999998</v>
       </c>
-      <c r="G39" s="36"/>
+      <c r="G39" s="46"/>
       <c r="H39" s="21">
         <v>297865.16509848298</v>
       </c>
@@ -2680,28 +2680,28 @@
         <v>288021.674062395</v>
       </c>
       <c r="S39" s="22"/>
-      <c r="T39" s="35">
+      <c r="T39" s="45">
         <v>286797.20400000003</v>
       </c>
-      <c r="U39" s="36"/>
+      <c r="U39" s="46"/>
       <c r="X39" s="15"/>
     </row>
     <row r="40" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="35">
+      <c r="B40" s="45">
         <v>298533.45</v>
       </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="35">
+      <c r="C40" s="46"/>
+      <c r="D40" s="45">
         <v>298209.02399999998</v>
       </c>
-      <c r="E40" s="36"/>
-      <c r="F40" s="35">
+      <c r="E40" s="46"/>
+      <c r="F40" s="45">
         <v>298013.96299999999</v>
       </c>
-      <c r="G40" s="36"/>
+      <c r="G40" s="46"/>
       <c r="H40" s="21">
         <v>297921.74707064801</v>
       </c>
@@ -2726,102 +2726,102 @@
         <v>288183.31510361301</v>
       </c>
       <c r="S40" s="22"/>
-      <c r="T40" s="35">
+      <c r="T40" s="45">
         <v>287063.875</v>
       </c>
-      <c r="U40" s="36"/>
+      <c r="U40" s="46"/>
       <c r="X40" s="15"/>
     </row>
     <row r="41" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="37">
+      <c r="B41" s="47">
         <v>23952</v>
       </c>
-      <c r="C41" s="38"/>
-      <c r="D41" s="37">
+      <c r="C41" s="48"/>
+      <c r="D41" s="47">
         <v>23952</v>
       </c>
-      <c r="E41" s="38"/>
-      <c r="F41" s="35">
+      <c r="E41" s="48"/>
+      <c r="F41" s="45">
         <v>23952</v>
       </c>
-      <c r="G41" s="36"/>
-      <c r="H41" s="35">
+      <c r="G41" s="46"/>
+      <c r="H41" s="45">
         <v>23952</v>
       </c>
-      <c r="I41" s="36"/>
-      <c r="J41" s="35">
+      <c r="I41" s="46"/>
+      <c r="J41" s="45">
         <v>23952</v>
       </c>
-      <c r="K41" s="36"/>
-      <c r="L41" s="35">
+      <c r="K41" s="46"/>
+      <c r="L41" s="45">
         <v>23952</v>
       </c>
-      <c r="M41" s="36"/>
-      <c r="N41" s="35">
+      <c r="M41" s="46"/>
+      <c r="N41" s="45">
         <v>23952</v>
       </c>
-      <c r="O41" s="36"/>
-      <c r="P41" s="35">
+      <c r="O41" s="46"/>
+      <c r="P41" s="45">
         <v>23952</v>
       </c>
-      <c r="Q41" s="36"/>
-      <c r="R41" s="35">
+      <c r="Q41" s="46"/>
+      <c r="R41" s="45">
         <v>23952</v>
       </c>
-      <c r="S41" s="36"/>
-      <c r="T41" s="37">
+      <c r="S41" s="46"/>
+      <c r="T41" s="47">
         <v>23952</v>
       </c>
-      <c r="U41" s="38"/>
+      <c r="U41" s="48"/>
       <c r="X41" s="15"/>
     </row>
     <row r="42" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="37">
+      <c r="B42" s="47">
         <v>51</v>
       </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="37">
+      <c r="C42" s="48"/>
+      <c r="D42" s="47">
         <v>51</v>
       </c>
-      <c r="E42" s="38"/>
-      <c r="F42" s="37">
+      <c r="E42" s="48"/>
+      <c r="F42" s="47">
         <v>51</v>
       </c>
-      <c r="G42" s="38"/>
-      <c r="H42" s="37">
+      <c r="G42" s="48"/>
+      <c r="H42" s="47">
         <v>51</v>
       </c>
-      <c r="I42" s="38"/>
-      <c r="J42" s="37">
+      <c r="I42" s="48"/>
+      <c r="J42" s="47">
         <v>51</v>
       </c>
-      <c r="K42" s="38"/>
-      <c r="L42" s="37">
+      <c r="K42" s="48"/>
+      <c r="L42" s="47">
         <v>51</v>
       </c>
-      <c r="M42" s="38"/>
-      <c r="N42" s="37">
+      <c r="M42" s="48"/>
+      <c r="N42" s="47">
         <v>51</v>
       </c>
-      <c r="O42" s="38"/>
-      <c r="P42" s="37">
+      <c r="O42" s="48"/>
+      <c r="P42" s="47">
         <v>51</v>
       </c>
-      <c r="Q42" s="38"/>
-      <c r="R42" s="37">
+      <c r="Q42" s="48"/>
+      <c r="R42" s="47">
         <v>51</v>
       </c>
-      <c r="S42" s="38"/>
-      <c r="T42" s="37">
+      <c r="S42" s="48"/>
+      <c r="T42" s="47">
         <v>51</v>
       </c>
-      <c r="U42" s="38"/>
+      <c r="U42" s="48"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B45" s="18" t="s">
@@ -2830,19 +2830,19 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="T1:U2"/>
-    <mergeCell ref="F1:G2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="L42:M42"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="F42:G42"/>
@@ -2859,20 +2859,20 @@
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="T41:U41"/>
     <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="H1:I2"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="T1:U2"/>
+    <mergeCell ref="F1:G2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="D1:E2"/>
     <mergeCell ref="R1:S2"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="N1:O2"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P1:Q2"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="P42:Q42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
